--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeq3ul/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutt\Documents\GitHub\OWASP-Testing-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC3F362-5CFA-DB44-85FA-72567691BB14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169E5B7-33C4-4258-A8BD-599F8E071012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="520" windowWidth="22740" windowHeight="12740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-8475" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -288,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="465">
   <si>
     <t>Information Gathering</t>
   </si>
@@ -1747,6 +1750,9 @@
   </si>
   <si>
     <t>Public knowledge [9]</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2001,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2029,11 +2035,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2169,22 +2184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2212,6 +2212,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3648,7 +3666,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="78"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="77"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3663,7 +3681,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="24"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3693,7 +3711,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="72"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="71"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3708,7 +3726,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="66"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="65"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3723,7 +3741,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="59"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="58"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3738,7 +3756,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="54"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="53"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3753,7 +3771,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="48"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="47"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3768,7 +3786,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="42"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="41"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3783,7 +3801,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="36"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="35"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3798,7 +3816,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="30"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Remark"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4125,39 +4143,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="40"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
@@ -4174,10 +4199,10 @@
         <v>111</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>119</v>
       </c>
@@ -4194,7 +4219,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>120</v>
       </c>
@@ -4211,7 +4236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>121</v>
       </c>
@@ -4228,7 +4253,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>122</v>
       </c>
@@ -4245,7 +4270,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>123</v>
       </c>
@@ -4262,7 +4287,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>124</v>
       </c>
@@ -4279,7 +4304,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>125</v>
       </c>
@@ -4296,7 +4321,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>126</v>
       </c>
@@ -4314,7 +4339,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>127</v>
       </c>
@@ -4332,7 +4357,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>128</v>
       </c>
@@ -4350,14 +4375,14 @@
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="7"/>
       <c r="C15" s="41"/>
       <c r="D15" s="44"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>118</v>
       </c>
@@ -4374,10 +4399,10 @@
         <v>111</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>138</v>
       </c>
@@ -4394,7 +4419,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>139</v>
       </c>
@@ -4411,7 +4436,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>140</v>
       </c>
@@ -4428,7 +4453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>141</v>
       </c>
@@ -4445,7 +4470,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>142</v>
       </c>
@@ -4462,7 +4487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>143</v>
       </c>
@@ -4479,7 +4504,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>144</v>
       </c>
@@ -4497,7 +4522,7 @@
       </c>
       <c r="F23"/>
     </row>
-    <row r="24" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>145</v>
       </c>
@@ -4514,14 +4539,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="41"/>
       <c r="D25" s="44"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>154</v>
       </c>
@@ -4538,10 +4563,10 @@
         <v>111</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>155</v>
       </c>
@@ -4558,7 +4583,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>156</v>
       </c>
@@ -4576,7 +4601,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>157</v>
       </c>
@@ -4594,7 +4619,7 @@
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>158</v>
       </c>
@@ -4612,7 +4637,7 @@
       </c>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>159</v>
       </c>
@@ -4630,7 +4655,7 @@
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>160</v>
       </c>
@@ -4648,7 +4673,7 @@
       </c>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>161</v>
       </c>
@@ -4666,14 +4691,14 @@
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="C34" s="41"/>
       <c r="D34" s="44"/>
       <c r="E34" s="21"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
@@ -4690,10 +4715,10 @@
         <v>111</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>169</v>
       </c>
@@ -4710,7 +4735,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>170</v>
       </c>
@@ -4727,7 +4752,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>171</v>
       </c>
@@ -4744,7 +4769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>172</v>
       </c>
@@ -4761,7 +4786,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>173</v>
       </c>
@@ -4778,7 +4803,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>174</v>
       </c>
@@ -4795,7 +4820,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>175</v>
       </c>
@@ -4813,7 +4838,7 @@
       </c>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>176</v>
       </c>
@@ -4830,7 +4855,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>177</v>
       </c>
@@ -4847,7 +4872,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>178</v>
       </c>
@@ -4864,14 +4889,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="7"/>
       <c r="C46" s="41"/>
       <c r="D46" s="44"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>2</v>
       </c>
@@ -4888,10 +4913,10 @@
         <v>111</v>
       </c>
       <c r="F47" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>189</v>
       </c>
@@ -4908,7 +4933,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>190</v>
       </c>
@@ -4925,7 +4950,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>191</v>
       </c>
@@ -4942,7 +4967,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>192</v>
       </c>
@@ -4960,7 +4985,7 @@
       </c>
       <c r="F51"/>
     </row>
-    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="40"/>
@@ -4968,7 +4993,7 @@
       <c r="E52" s="29"/>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>197</v>
       </c>
@@ -4985,10 +5010,10 @@
         <v>111</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>198</v>
       </c>
@@ -5005,7 +5030,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>199</v>
       </c>
@@ -5022,7 +5047,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>200</v>
       </c>
@@ -5040,7 +5065,7 @@
       </c>
       <c r="F56" s="20"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>201</v>
       </c>
@@ -5057,7 +5082,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>202</v>
       </c>
@@ -5074,7 +5099,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>203</v>
       </c>
@@ -5091,7 +5116,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>204</v>
       </c>
@@ -5108,7 +5133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>205</v>
       </c>
@@ -5126,7 +5151,7 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
       <c r="C62" s="42"/>
@@ -5134,7 +5159,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
         <v>3</v>
       </c>
@@ -5151,10 +5176,10 @@
         <v>111</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>241</v>
       </c>
@@ -5171,7 +5196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>242</v>
       </c>
@@ -5188,7 +5213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>243</v>
       </c>
@@ -5206,7 +5231,7 @@
       </c>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>244</v>
       </c>
@@ -5223,7 +5248,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A68" s="37" t="s">
         <v>245</v>
       </c>
@@ -5240,7 +5265,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A69" s="20"/>
       <c r="B69" s="7" t="s">
         <v>219</v>
@@ -5255,7 +5280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>220</v>
@@ -5270,7 +5295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
         <v>221</v>
@@ -5285,7 +5310,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B72" s="7" t="s">
         <v>222</v>
       </c>
@@ -5300,7 +5325,7 @@
       </c>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A73" s="20"/>
       <c r="B73" s="7" t="s">
         <v>223</v>
@@ -5315,7 +5340,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A74" s="20"/>
       <c r="B74" s="7" t="s">
         <v>224</v>
@@ -5330,7 +5355,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A75" s="20" t="s">
         <v>246</v>
       </c>
@@ -5347,7 +5372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="20" t="s">
         <v>247</v>
       </c>
@@ -5364,7 +5389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" s="20" t="s">
         <v>248</v>
       </c>
@@ -5381,7 +5406,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="20" t="s">
         <v>249</v>
       </c>
@@ -5398,7 +5423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="20" t="s">
         <v>250</v>
       </c>
@@ -5415,7 +5440,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>251</v>
       </c>
@@ -5432,7 +5457,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>252</v>
       </c>
@@ -5450,7 +5475,7 @@
       </c>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="1:6" s="20" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>232</v>
       </c>
@@ -5465,7 +5490,7 @@
       </c>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
         <v>233</v>
@@ -5481,7 +5506,7 @@
       </c>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
         <v>253</v>
       </c>
@@ -5499,7 +5524,7 @@
       </c>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>254</v>
       </c>
@@ -5517,7 +5542,7 @@
       </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
         <v>236</v>
@@ -5529,7 +5554,7 @@
       </c>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
       <c r="B87" s="7" t="s">
         <v>237</v>
@@ -5541,7 +5566,7 @@
       </c>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="7" t="s">
         <v>238</v>
@@ -5553,7 +5578,7 @@
       </c>
       <c r="F88" s="29"/>
     </row>
-    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
         <v>255</v>
       </c>
@@ -5571,7 +5596,7 @@
       </c>
       <c r="F89" s="29"/>
     </row>
-    <row r="90" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
         <v>256</v>
       </c>
@@ -5589,14 +5614,14 @@
       </c>
       <c r="F90" s="29"/>
     </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
       <c r="C91" s="43"/>
       <c r="D91" s="45"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26" t="s">
         <v>257</v>
       </c>
@@ -5613,10 +5638,10 @@
         <v>111</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="20" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
         <v>260</v>
       </c>
@@ -5634,7 +5659,7 @@
       </c>
       <c r="F93" s="29"/>
     </row>
-    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
         <v>261</v>
       </c>
@@ -5652,14 +5677,14 @@
       </c>
       <c r="F94" s="29"/>
     </row>
-    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
       <c r="C95" s="41"/>
       <c r="D95" s="44"/>
       <c r="E95" s="21"/>
       <c r="F95" s="29"/>
     </row>
-    <row r="96" spans="1:6" s="20" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26" t="s">
         <v>262</v>
       </c>
@@ -5676,10 +5701,10 @@
         <v>111</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="20" t="s">
         <v>266</v>
       </c>
@@ -5697,7 +5722,7 @@
       </c>
       <c r="F97" s="29"/>
     </row>
-    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
         <v>267</v>
       </c>
@@ -5715,7 +5740,7 @@
       </c>
       <c r="F98" s="29"/>
     </row>
-    <row r="99" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
         <v>268</v>
       </c>
@@ -5733,13 +5758,13 @@
       </c>
       <c r="F99" s="29"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C100" s="43"/>
       <c r="D100" s="45"/>
       <c r="E100" s="23"/>
       <c r="F100" s="29"/>
     </row>
-    <row r="101" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="26" t="s">
         <v>269</v>
       </c>
@@ -5756,10 +5781,10 @@
         <v>111</v>
       </c>
       <c r="F101" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A102" s="20" t="s">
         <v>270</v>
       </c>
@@ -5776,7 +5801,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="20" t="s">
         <v>271</v>
       </c>
@@ -5793,7 +5818,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="143" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A104" s="20" t="s">
         <v>272</v>
       </c>
@@ -5811,7 +5836,7 @@
       </c>
       <c r="F104" s="20"/>
     </row>
-    <row r="105" spans="1:6" ht="91" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A105" s="20" t="s">
         <v>273</v>
       </c>
@@ -5829,7 +5854,7 @@
       </c>
       <c r="F105" s="20"/>
     </row>
-    <row r="106" spans="1:6" ht="91" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A106" s="20" t="s">
         <v>274</v>
       </c>
@@ -5847,7 +5872,7 @@
       </c>
       <c r="F106" s="20"/>
     </row>
-    <row r="107" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="72" x14ac:dyDescent="0.2">
       <c r="A107" s="20" t="s">
         <v>275</v>
       </c>
@@ -5865,7 +5890,7 @@
       </c>
       <c r="F107" s="20"/>
     </row>
-    <row r="108" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A108" s="20" t="s">
         <v>276</v>
       </c>
@@ -5883,7 +5908,7 @@
       </c>
       <c r="F108" s="20"/>
     </row>
-    <row r="109" spans="1:6" ht="104" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A109" s="20" t="s">
         <v>277</v>
       </c>
@@ -5901,7 +5926,7 @@
       </c>
       <c r="F109" s="20"/>
     </row>
-    <row r="110" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A110" s="20" t="s">
         <v>278</v>
       </c>
@@ -5919,7 +5944,7 @@
       </c>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
       <c r="C111" s="41"/>
@@ -5927,7 +5952,7 @@
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
     </row>
-    <row r="112" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
         <v>288</v>
       </c>
@@ -5947,7 +5972,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>289</v>
       </c>
@@ -5965,7 +5990,7 @@
       </c>
       <c r="F113" s="29"/>
     </row>
-    <row r="114" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>290</v>
       </c>
@@ -5983,7 +6008,7 @@
       </c>
       <c r="F114" s="29"/>
     </row>
-    <row r="115" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>291</v>
       </c>
@@ -6001,7 +6026,7 @@
       </c>
       <c r="F115" s="20"/>
     </row>
-    <row r="116" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>292</v>
       </c>
@@ -6019,7 +6044,7 @@
       </c>
       <c r="F116" s="20"/>
     </row>
-    <row r="117" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>293</v>
       </c>
@@ -6037,7 +6062,7 @@
       </c>
       <c r="F117" s="20"/>
     </row>
-    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>294</v>
       </c>
@@ -6055,7 +6080,7 @@
       </c>
       <c r="F118" s="20"/>
     </row>
-    <row r="119" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>295</v>
       </c>
@@ -6073,7 +6098,7 @@
       </c>
       <c r="F119" s="20"/>
     </row>
-    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>296</v>
       </c>
@@ -6091,7 +6116,7 @@
       </c>
       <c r="F120" s="20"/>
     </row>
-    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>297</v>
       </c>
@@ -6109,7 +6134,7 @@
       </c>
       <c r="F121" s="20"/>
     </row>
-    <row r="122" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A122" s="20" t="s">
         <v>298</v>
       </c>
@@ -6126,7 +6151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>299</v>
       </c>
@@ -6144,7 +6169,7 @@
       </c>
       <c r="F123" s="29"/>
     </row>
-    <row r="124" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>300</v>
       </c>
@@ -6162,44 +6187,44 @@
       </c>
       <c r="F124" s="29"/>
     </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
       <c r="C125" s="41"/>
       <c r="D125" s="44"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
       <c r="B126" s="7"/>
       <c r="C126" s="41"/>
       <c r="D126" s="44"/>
       <c r="E126" s="21"/>
     </row>
-    <row r="127" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="25" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="25" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -6208,7 +6233,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="11">
     <tablePart r:id="rId2"/>
@@ -6757,21 +6782,21 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>327</v>
       </c>
@@ -6803,7 +6828,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -6831,7 +6856,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
@@ -6842,7 +6867,7 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="34"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -6883,40 +6908,40 @@
       <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6924,28 +6949,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="60" t="s">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="60"/>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6961,15 +6986,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -6985,15 +7010,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -7009,15 +7034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
@@ -7033,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7043,29 +7068,29 @@
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7081,15 +7106,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7105,15 +7130,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7129,15 +7154,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7153,57 +7178,57 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="52">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="52">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>3.375</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="52"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52" t="str">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Low</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="61"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
@@ -7221,7 +7246,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
         <f>IF($B16&lt;3,"-&gt;Low&lt;-","Low")</f>
         <v>-&gt;Low&lt;-</v>
@@ -7240,7 +7265,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
         <f>IF(AND($B16&gt;=3,$B16&lt;6),"-&gt;Moderate&lt;-","Moderate")</f>
         <v>Moderate</v>
@@ -7259,7 +7284,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
         <f>IF($B16&gt;=6,"-&gt;High&lt;-","High")</f>
         <v>High</v>
@@ -7280,6 +7305,12 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7296,12 +7327,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
@@ -7416,27 +7441,27 @@
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>15</v>
       </c>
@@ -7470,7 +7495,7 @@
       </c>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -7520,7 +7545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>54</v>
       </c>
@@ -7570,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>458</v>
       </c>
@@ -7620,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>459</v>
       </c>
@@ -7670,7 +7695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>460</v>
       </c>
@@ -7720,7 +7745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>461</v>
       </c>
@@ -7762,7 +7787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>462</v>
       </c>
@@ -7788,7 +7813,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="10" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
@@ -7822,7 +7847,7 @@
       </c>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -7872,7 +7897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
@@ -7922,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>74</v>
       </c>
@@ -7972,7 +7997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -8022,7 +8047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
@@ -8072,7 +8097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
@@ -8114,7 +8139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">

--- a/OWASPv4_Checklist.xlsx
+++ b/OWASPv4_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nutt\Documents\GitHub\OWASP-Testing-Checklist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F169E5B7-33C4-4258-A8BD-599F8E071012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE63B76-34D1-4658-9F2C-CEC535816A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-8475" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-8475" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Checklist" sheetId="1" r:id="rId1"/>
@@ -1945,7 +1945,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1997,6 +1997,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,15 +2125,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2136,9 +2133,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2178,13 +2172,28 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2212,29 +2221,290 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="126">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2414,7 +2684,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2424,17 +2694,59 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2500,31 +2812,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2594,7 +2882,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2604,17 +2892,59 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color indexed="23"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2684,7 +3014,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2694,17 +3024,59 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2760,7 +3132,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color indexed="23"/>
+        <color theme="0" tint="-0.499984740745262"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -2771,30 +3143,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2864,30 +3212,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2951,300 +3275,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3313,30 +3343,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.79998168889431442"/>
@@ -3658,14 +3664,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A4:F14" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A4:F14" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="76"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Information Gathering" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Test Name" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tools" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Result" dataDxfId="77"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3673,14 +3679,14 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table61415" displayName="Table61415" ref="A96:F99" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A96:F99" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Cryptography" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Test Name" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Description" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Tools" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Result" dataDxfId="32"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3688,14 +3694,14 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table616" displayName="Table616" ref="A112:F124" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A112:F124" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Client Side Testing" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Test Name" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Description" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Tools" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Result" dataDxfId="27"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="Remark"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3703,14 +3709,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A16:F24" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A16:F24" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Configuration and Deploy Management Testing" dataDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test Name" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tools" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Result" dataDxfId="72"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3718,14 +3724,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="A35:F45" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A35:F45" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Authentication Testing" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Test Name" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Tools" dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Result" dataDxfId="67"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3733,14 +3739,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="A53:F61" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A53:F61" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="60"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="59"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Session Management Testing" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Test Name" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Tools" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Result" dataDxfId="62"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3748,14 +3754,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table5" displayName="Table5" ref="A47:F51" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A47:F51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Authorization Testing " dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Test Name" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Description" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Tools" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Result" dataDxfId="57"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3763,14 +3769,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A101:F110" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A101:F110" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Business logic Testing" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Test Name" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Description" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Tools" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Result" dataDxfId="52"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3778,14 +3784,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table9" displayName="Table9" ref="A63:F90" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A63:F90" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Data Validation Testing" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Test Name" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Description" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Tools" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Result" dataDxfId="47"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3793,14 +3799,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table29" displayName="Table29" ref="A26:F33" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A26:F33" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identity Management Testing" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Test Name" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Tools" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Result" dataDxfId="42"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3808,14 +3814,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table614" displayName="Table614" ref="A92:F94" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A92:F94" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Error Handling" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Test Name" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Description" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Tools" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Result" dataDxfId="37"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4148,57 +4154,57 @@
   </sheetPr>
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="36" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" style="7" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="40"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+    </row>
+    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4209,10 +4215,10 @@
       <c r="B5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="40" t="s">
         <v>318</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -4226,10 +4232,10 @@
       <c r="B6" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="40" t="s">
         <v>315</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -4243,27 +4249,27 @@
       <c r="B7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="40" t="s">
         <v>316</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>122</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>449</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -4277,27 +4283,27 @@
       <c r="B9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="40" t="s">
         <v>316</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="40" t="s">
         <v>432</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -4311,51 +4317,51 @@
       <c r="B11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="42" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="40" t="s">
         <v>431</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>126</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="40" t="s">
         <v>323</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>127</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="37" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="40" t="s">
         <v>448</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -4364,41 +4370,41 @@
       <c r="B14" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="37" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="40" t="s">
         <v>316</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="44"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4409,10 +4415,10 @@
       <c r="B17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>336</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -4426,10 +4432,10 @@
       <c r="B18" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>339</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -4443,10 +4449,10 @@
       <c r="B19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="40" t="s">
         <v>339</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -4460,10 +4466,10 @@
       <c r="B20" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="40" t="s">
         <v>340</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -4477,10 +4483,10 @@
       <c r="B21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="40" t="s">
         <v>388</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -4494,10 +4500,10 @@
       <c r="B22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="40" t="s">
         <v>341</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -4511,10 +4517,10 @@
       <c r="B23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="40" t="s">
         <v>433</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -4529,54 +4535,54 @@
       <c r="B24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="40" t="s">
         <v>434</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="44"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="29" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:6" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="61" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="29" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -4590,16 +4596,16 @@
       <c r="B28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
@@ -4608,16 +4614,16 @@
       <c r="B29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
@@ -4626,16 +4632,16 @@
       <c r="B30" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>436</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
@@ -4644,16 +4650,16 @@
       <c r="B31" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="D31" s="44" t="s">
+      <c r="D31" s="40" t="s">
         <v>436</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
@@ -4662,16 +4668,16 @@
       <c r="B32" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
@@ -4680,41 +4686,41 @@
       <c r="B33" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="44"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="29"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4725,10 +4731,10 @@
       <c r="B36" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -4742,10 +4748,10 @@
       <c r="B37" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="40" t="s">
         <v>437</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -4759,10 +4765,10 @@
       <c r="B38" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="40" t="s">
         <v>354</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -4776,10 +4782,10 @@
       <c r="B39" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -4793,10 +4799,10 @@
       <c r="B40" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -4810,10 +4816,10 @@
       <c r="B41" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="D41" s="44" t="s">
+      <c r="D41" s="40" t="s">
         <v>438</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -4827,10 +4833,10 @@
       <c r="B42" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D42" s="44" t="s">
+      <c r="D42" s="40" t="s">
         <v>437</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -4845,10 +4851,10 @@
       <c r="B43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="D43" s="44" t="s">
+      <c r="D43" s="40" t="s">
         <v>354</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -4862,10 +4868,10 @@
       <c r="B44" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="40" t="s">
         <v>436</v>
       </c>
       <c r="E44" s="24" t="s">
@@ -4879,40 +4885,40 @@
       <c r="B45" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="D45" s="44" t="s">
+      <c r="D45" s="40" t="s">
         <v>354</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20"/>
       <c r="B46" s="7"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -4923,10 +4929,10 @@
       <c r="B48" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="D48" s="44" t="s">
+      <c r="D48" s="40" t="s">
         <v>439</v>
       </c>
       <c r="E48" s="24" t="s">
@@ -4940,10 +4946,10 @@
       <c r="B49" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="D49" s="44" t="s">
+      <c r="D49" s="40" t="s">
         <v>453</v>
       </c>
       <c r="E49" s="24" t="s">
@@ -4957,10 +4963,10 @@
       <c r="B50" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="40" t="s">
         <v>453</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -4974,10 +4980,10 @@
       <c r="B51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="40" t="s">
         <v>453</v>
       </c>
       <c r="E51" s="24" t="s">
@@ -4988,28 +4994,28 @@
     <row r="52" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5023,7 +5029,7 @@
       <c r="C54" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="D54" s="44" t="s">
+      <c r="D54" s="40" t="s">
         <v>454</v>
       </c>
       <c r="E54" s="24" t="s">
@@ -5040,7 +5046,7 @@
       <c r="C55" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -5057,7 +5063,7 @@
       <c r="C56" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -5075,14 +5081,14 @@
       <c r="C57" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D57" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E57" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>202</v>
       </c>
@@ -5092,7 +5098,7 @@
       <c r="C58" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D58" s="40" t="s">
         <v>455</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -5106,10 +5112,10 @@
       <c r="B59" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="38" t="s">
         <v>371</v>
       </c>
-      <c r="D59" s="44" t="s">
+      <c r="D59" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E59" s="24" t="s">
@@ -5123,10 +5129,10 @@
       <c r="B60" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="42" t="s">
+      <c r="C60" s="38" t="s">
         <v>370</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -5140,10 +5146,10 @@
       <c r="B61" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="42" t="s">
+      <c r="C61" s="38" t="s">
         <v>372</v>
       </c>
-      <c r="D61" s="44" t="s">
+      <c r="D61" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -5151,62 +5157,62 @@
       </c>
       <c r="F61" s="20"/>
     </row>
-    <row r="62" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20"/>
       <c r="B62" s="7"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="45"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="41"/>
       <c r="E62" s="23"/>
       <c r="F62" s="20"/>
     </row>
-    <row r="63" spans="1:6" s="29" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
+    <row r="63" spans="1:6" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="61" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>241</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="D64" s="44" t="s">
+      <c r="D64" s="40" t="s">
         <v>440</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>242</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="40" t="s">
         <v>441</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -5220,10 +5226,10 @@
       <c r="B66" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="D66" s="44" t="s">
+      <c r="D66" s="40" t="s">
         <v>374</v>
       </c>
       <c r="E66" s="24" t="s">
@@ -5231,34 +5237,34 @@
       </c>
       <c r="F66" s="20"/>
     </row>
-    <row r="67" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>244</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="D67" s="44" t="s">
+      <c r="D67" s="40" t="s">
         <v>378</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="37" t="s">
+    <row r="68" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="33" t="s">
         <v>245</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="D68" s="44" t="s">
+      <c r="D68" s="40" t="s">
         <v>451</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -5270,40 +5276,40 @@
       <c r="B69" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="D69" s="44" t="s">
+      <c r="D69" s="40" t="s">
         <v>380</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A70" s="20"/>
       <c r="B70" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="44" t="s">
+      <c r="D70" s="40" t="s">
         <v>382</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A71" s="20"/>
       <c r="B71" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C71" s="39" t="s">
         <v>384</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="40" t="s">
         <v>385</v>
       </c>
       <c r="E71" s="24" t="s">
@@ -5314,10 +5320,10 @@
       <c r="B72" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C72" s="43" t="s">
+      <c r="C72" s="39" t="s">
         <v>386</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="40" t="s">
         <v>387</v>
       </c>
       <c r="E72" s="24" t="s">
@@ -5330,10 +5336,10 @@
       <c r="B73" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="D73" s="44" t="s">
+      <c r="D73" s="40" t="s">
         <v>387</v>
       </c>
       <c r="E73" s="24" t="s">
@@ -5345,10 +5351,10 @@
       <c r="B74" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="41" t="s">
+      <c r="C74" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="D74" s="44" t="s">
+      <c r="D74" s="40" t="s">
         <v>390</v>
       </c>
       <c r="E74" s="24" t="s">
@@ -5362,10 +5368,10 @@
       <c r="B75" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="D75" s="44" t="s">
+      <c r="D75" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E75" s="24" t="s">
@@ -5379,10 +5385,10 @@
       <c r="B76" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="40" t="s">
         <v>393</v>
       </c>
       <c r="E76" s="24" t="s">
@@ -5399,7 +5405,7 @@
       <c r="C77" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D77" s="44" t="s">
+      <c r="D77" s="40" t="s">
         <v>439</v>
       </c>
       <c r="E77" s="24" t="s">
@@ -5416,7 +5422,7 @@
       <c r="C78" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D78" s="44" t="s">
+      <c r="D78" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E78" s="24" t="s">
@@ -5433,7 +5439,7 @@
       <c r="C79" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E79" s="24" t="s">
@@ -5450,61 +5456,61 @@
       <c r="C80" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="D80" s="44" t="s">
+      <c r="D80" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A81" s="20" t="s">
         <v>252</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="D81" s="44" t="s">
+      <c r="D81" s="40" t="s">
         <v>457</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="29"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="D82" s="44" t="s">
+      <c r="D82" s="40" t="s">
         <v>452</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="29"/>
+      <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C83" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="D83" s="44" t="s">
+      <c r="D83" s="40" t="s">
         <v>452</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F83" s="29"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="20" t="s">
@@ -5516,13 +5522,13 @@
       <c r="C84" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D84" s="44" t="s">
+      <c r="D84" s="40" t="s">
         <v>456</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F84" s="29"/>
+      <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
@@ -5534,49 +5540,49 @@
       <c r="C85" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="41" t="s">
         <v>447</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F85" s="29"/>
+      <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="20"/>
       <c r="B86" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="45"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="41"/>
       <c r="E86" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F86" s="29"/>
+      <c r="F86" s="26"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="20"/>
       <c r="B87" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="45"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="41"/>
       <c r="E87" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F87" s="29"/>
+      <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="20"/>
       <c r="B88" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C88" s="43"/>
-      <c r="D88" s="45"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="41"/>
       <c r="E88" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F88" s="29"/>
+      <c r="F88" s="26"/>
     </row>
     <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="20" t="s">
@@ -5588,13 +5594,13 @@
       <c r="C89" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D89" s="45" t="s">
+      <c r="D89" s="41" t="s">
         <v>403</v>
       </c>
       <c r="E89" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F89" s="29"/>
+      <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A90" s="20" t="s">
@@ -5606,38 +5612,38 @@
       <c r="C90" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D90" s="45" t="s">
+      <c r="D90" s="41" t="s">
         <v>442</v>
       </c>
       <c r="E90" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F90" s="29"/>
-    </row>
-    <row r="91" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="20"/>
       <c r="B91" s="7"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="45"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="41"/>
       <c r="E91" s="23"/>
     </row>
-    <row r="92" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
+    <row r="92" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="27" t="s">
+      <c r="D92" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="27" t="s">
+      <c r="E92" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5648,16 +5654,16 @@
       <c r="B93" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="D93" s="44" t="s">
+      <c r="D93" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E93" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F93" s="29"/>
+      <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" s="20" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="20" t="s">
@@ -5669,38 +5675,38 @@
       <c r="C94" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="40" t="s">
         <v>435</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="29"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
-      <c r="C95" s="41"/>
-      <c r="D95" s="44"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="40"/>
       <c r="E95" s="21"/>
-      <c r="F95" s="29"/>
+      <c r="F95" s="26"/>
     </row>
     <row r="96" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="26" t="s">
+      <c r="A96" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="B96" s="27" t="s">
+      <c r="B96" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="27" t="s">
+      <c r="E96" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5711,16 +5717,16 @@
       <c r="B97" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="D97" s="44" t="s">
+      <c r="D97" s="40" t="s">
         <v>407</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F97" s="29"/>
+      <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="20" t="s">
@@ -5729,16 +5735,16 @@
       <c r="B98" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="37" t="s">
         <v>408</v>
       </c>
-      <c r="D98" s="44" t="s">
+      <c r="D98" s="40" t="s">
         <v>409</v>
       </c>
       <c r="E98" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F98" s="29"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" ht="84" x14ac:dyDescent="0.2">
       <c r="A99" s="20" t="s">
@@ -5747,40 +5753,40 @@
       <c r="B99" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="37" t="s">
         <v>410</v>
       </c>
-      <c r="D99" s="44" t="s">
+      <c r="D99" s="40" t="s">
         <v>443</v>
       </c>
-      <c r="E99" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F99" s="29"/>
+      <c r="E99" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C100" s="43"/>
-      <c r="D100" s="45"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="41"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="29"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="26" t="s">
+      <c r="A101" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C101" s="27" t="s">
+      <c r="C101" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="27" t="s">
+      <c r="E101" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="F101" s="61" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5791,13 +5797,13 @@
       <c r="B102" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="D102" s="44" t="s">
+      <c r="D102" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E102" s="38" t="s">
+      <c r="E102" s="34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5808,13 +5814,13 @@
       <c r="B103" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="D103" s="44" t="s">
+      <c r="D103" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E103" s="38" t="s">
+      <c r="E103" s="34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5825,13 +5831,13 @@
       <c r="B104" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="C104" s="41" t="s">
+      <c r="C104" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="D104" s="44" t="s">
+      <c r="D104" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E104" s="38" t="s">
+      <c r="E104" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F104" s="20"/>
@@ -5843,13 +5849,13 @@
       <c r="B105" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="37" t="s">
         <v>415</v>
       </c>
-      <c r="D105" s="44" t="s">
+      <c r="D105" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E105" s="38" t="s">
+      <c r="E105" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F105" s="20"/>
@@ -5861,13 +5867,13 @@
       <c r="B106" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="D106" s="44" t="s">
+      <c r="D106" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E106" s="38" t="s">
+      <c r="E106" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F106" s="20"/>
@@ -5879,13 +5885,13 @@
       <c r="B107" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="37" t="s">
         <v>416</v>
       </c>
-      <c r="D107" s="44" t="s">
+      <c r="D107" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E107" s="38" t="s">
+      <c r="E107" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F107" s="20"/>
@@ -5897,13 +5903,13 @@
       <c r="B108" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="37" t="s">
         <v>411</v>
       </c>
-      <c r="D108" s="44" t="s">
+      <c r="D108" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E108" s="38" t="s">
+      <c r="E108" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F108" s="20"/>
@@ -5915,13 +5921,13 @@
       <c r="B109" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="D109" s="44" t="s">
+      <c r="D109" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E109" s="38" t="s">
+      <c r="E109" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F109" s="20"/>
@@ -5933,42 +5939,42 @@
       <c r="B110" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="D110" s="44" t="s">
+      <c r="D110" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E110" s="38" t="s">
+      <c r="E110" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="20"/>
       <c r="B111" s="7"/>
-      <c r="C111" s="41"/>
+      <c r="C111" s="37"/>
       <c r="D111" s="20"/>
       <c r="E111" s="21"/>
       <c r="F111" s="20"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
+      <c r="A112" s="60" t="s">
         <v>288</v>
       </c>
-      <c r="B112" s="27" t="s">
+      <c r="B112" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="27" t="s">
+      <c r="D112" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="27" t="s">
+      <c r="E112" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5979,16 +5985,16 @@
       <c r="B113" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="D113" s="44" t="s">
+      <c r="D113" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="E113" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F113" s="29"/>
+      <c r="E113" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="26"/>
     </row>
     <row r="114" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
@@ -5997,16 +6003,16 @@
       <c r="B114" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="37" t="s">
         <v>420</v>
       </c>
-      <c r="D114" s="44" t="s">
+      <c r="D114" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E114" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F114" s="29"/>
+      <c r="E114" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="26"/>
     </row>
     <row r="115" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
@@ -6015,13 +6021,13 @@
       <c r="B115" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C115" s="37" t="s">
         <v>421</v>
       </c>
-      <c r="D115" s="44" t="s">
+      <c r="D115" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E115" s="38" t="s">
+      <c r="E115" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F115" s="20"/>
@@ -6033,13 +6039,13 @@
       <c r="B116" s="20" t="s">
         <v>304</v>
       </c>
-      <c r="C116" s="41" t="s">
+      <c r="C116" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="D116" s="44" t="s">
+      <c r="D116" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E116" s="38" t="s">
+      <c r="E116" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F116" s="20"/>
@@ -6051,13 +6057,13 @@
       <c r="B117" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C117" s="41" t="s">
+      <c r="C117" s="37" t="s">
         <v>424</v>
       </c>
-      <c r="D117" s="44" t="s">
+      <c r="D117" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E117" s="38" t="s">
+      <c r="E117" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F117" s="20"/>
@@ -6069,13 +6075,13 @@
       <c r="B118" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="C118" s="41" t="s">
+      <c r="C118" s="37" t="s">
         <v>425</v>
       </c>
-      <c r="D118" s="44" t="s">
+      <c r="D118" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E118" s="38" t="s">
+      <c r="E118" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F118" s="20"/>
@@ -6087,13 +6093,13 @@
       <c r="B119" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="C119" s="41" t="s">
+      <c r="C119" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="D119" s="44" t="s">
+      <c r="D119" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E119" s="38" t="s">
+      <c r="E119" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F119" s="20"/>
@@ -6105,13 +6111,13 @@
       <c r="B120" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="C120" s="41" t="s">
+      <c r="C120" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D120" s="44" t="s">
+      <c r="D120" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E120" s="38" t="s">
+      <c r="E120" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F120" s="20"/>
@@ -6123,13 +6129,13 @@
       <c r="B121" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="37" t="s">
         <v>428</v>
       </c>
-      <c r="D121" s="44" t="s">
+      <c r="D121" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="E121" s="38" t="s">
+      <c r="E121" s="34" t="s">
         <v>116</v>
       </c>
       <c r="F121" s="20"/>
@@ -6141,13 +6147,13 @@
       <c r="B122" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C122" s="41" t="s">
+      <c r="C122" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="D122" s="44" t="s">
+      <c r="D122" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="E122" s="38" t="s">
+      <c r="E122" s="34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6158,16 +6164,16 @@
       <c r="B123" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="C123" s="41" t="s">
+      <c r="C123" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="D123" s="44" t="s">
+      <c r="D123" s="40" t="s">
         <v>435</v>
       </c>
-      <c r="E123" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F123" s="29"/>
+      <c r="E123" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="26"/>
     </row>
     <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
@@ -6176,29 +6182,29 @@
       <c r="B124" s="20" t="s">
         <v>312</v>
       </c>
-      <c r="C124" s="41" t="s">
+      <c r="C124" s="37" t="s">
         <v>445</v>
       </c>
-      <c r="D124" s="44" t="s">
+      <c r="D124" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="E124" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F124" s="29"/>
-    </row>
-    <row r="125" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="F124" s="26"/>
+    </row>
+    <row r="125" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20"/>
       <c r="B125" s="7"/>
-      <c r="C125" s="41"/>
-      <c r="D125" s="44"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="40"/>
       <c r="E125" s="21"/>
     </row>
-    <row r="126" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="37"/>
+    <row r="126" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="33"/>
       <c r="B126" s="7"/>
-      <c r="C126" s="41"/>
-      <c r="D126" s="44"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="40"/>
       <c r="E126" s="21"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -6778,15 +6784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -6797,102 +6803,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="63" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="64" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="48" t="s">
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="43" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"Note"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6905,7 +6911,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6920,28 +6926,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="I3" t="s">
         <v>11</v>
       </c>
@@ -6950,27 +6956,27 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="5">
         <f>VLOOKUP(B5,References!A2:B8,2,FALSE)</f>
         <v>3</v>
@@ -6990,11 +6996,11 @@
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="5">
         <f>VLOOKUP(B6,References!C2:D6,2,FALSE)</f>
         <v>4</v>
@@ -7014,11 +7020,11 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="5">
         <f>VLOOKUP(B7,References!E2:F6,2,FALSE)</f>
         <v>0</v>
@@ -7038,11 +7044,11 @@
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="5">
         <f>VLOOKUP(B8,References!G3:H8,2,FALSE)</f>
         <v>2</v>
@@ -7069,28 +7075,28 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5">
         <f>VLOOKUP(B11,References!I2:J7,2,FALSE)</f>
         <v>1</v>
@@ -7110,11 +7116,11 @@
       <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="5">
         <f>VLOOKUP(B12,References!K$2:L$7,2,FALSE)</f>
         <v>5</v>
@@ -7134,11 +7140,11 @@
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="5">
         <f>VLOOKUP(B13,References!M$2:N$7,2,FALSE)</f>
         <v>4</v>
@@ -7158,11 +7164,11 @@
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
       <c r="E14" s="5">
         <f>VLOOKUP(B14,References!O$2:P$7,2,FALSE)</f>
         <v>3</v>
@@ -7182,51 +7188,51 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="53">
         <f>IFERROR(AVERAGE(E5:E8,E11:E14),"All factors require a selection.")</f>
         <v>2.75</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="53">
         <f>IFERROR(AVERAGE(H5:H8,H11:H14),"All factors require a selection.")</f>
         <v>3.375</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="52"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61" t="str">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48" t="str">
         <f>IFERROR(IF(AND($B$16&lt;3,$G$16&lt;3),"Note",IF(OR(AND($B$16&lt;3,$G$16&gt;=3,$G$16&lt;6),AND($B$16&gt;=3,$B$16&lt;6,$G$16&lt;3)),"Low",IF(OR(AND($B16&lt;3,$G16&gt;=6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;=3,$G16&lt;6),AND($B16&gt;=6,$G16&lt;3)),"MODERATE",IF(OR(AND($B16&gt;=6,$B16&gt;=3,$G16&lt;6),AND($B16&gt;=3,$B16&lt;6,$G16&gt;6)),"High","Critical")))),"Note")</f>
         <v>Low</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
@@ -7305,12 +7311,6 @@
   </sheetData>
   <dataConsolidate function="varp"/>
   <mergeCells count="22">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B16:D17"/>
     <mergeCell ref="G16:G17"/>
@@ -7327,52 +7327,58 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="critical">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="critical">
       <formula>NOT(ISERROR(SEARCH("critical",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="high">
+    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="high">
       <formula>NOT(ISERROR(SEARCH("high",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="moderate">
+    <cfRule type="containsText" dxfId="19" priority="9" operator="containsText" text="moderate">
       <formula>NOT(ISERROR(SEARCH("moderate",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="low">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="low">
       <formula>NOT(ISERROR(SEARCH("low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Note">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="Note">
       <formula>NOT(ISERROR(SEARCH("Note",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26 B23:D23">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:D26 A24:A26">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",A23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="&lt;">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="&lt;">
       <formula>NOT(ISERROR(SEARCH("&lt;",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7437,7 +7443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
